--- a/biology/Botanique/Pritchardia/Pritchardia.xlsx
+++ b/biology/Botanique/Pritchardia/Pritchardia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pritchardia est un genre de plantes de la famille des Arécacées. Il comprend une trentaine d'espèces à feuilles palmées. On le rencontre dans les îles des zones tropicales de l'Océan Pacifique, telles Fidji, Samoa, Tonga, Tuamotu et Hawaii.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des palmiers dont le stipe solitaire peut atteindre 40 mètres de hauteur.
 Les feuilles sont costopalmées et en éventail. Les pétioles sont inermes. Le stipe est longitudinal, nu et lisse ou recouvert de fibres, et entouré de cicatrices annellées.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dix-neuf espèces du genre Pritchardia sont endémiques aux Îles de l'archipel Hawaii. On trouve également des espèces sur d'autres îles du Pacifique. Les espèces poussent dans les régions pluvieuses, et affectionnent les sols d'origine volcanique.
 Selon les données de la Liste rouge de l'UICN, de nombreuses espèces du genre sont extrêmement menacées.
@@ -576,7 +592,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le palmier est souvent cultivé pour sa valeur ornementale.
 </t>
@@ -607,11 +625,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Coryphoideae
 Tribu des Trachycarpeae
-Ce genre  partage cette tribu (des «non encore placés») avec six autres genres :  Acoelorrhaphe, Brahea, Colpothrinax, Copernicia, Serenoa, Washingtonia [1].
+Ce genre  partage cette tribu (des «non encore placés») avec six autres genres :  Acoelorrhaphe, Brahea, Colpothrinax, Copernicia, Serenoa, Washingtonia .
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pritchardia arecina Becc., Webbia 4: 224 (1913).
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pritchardia arecina Becc., Webbia 4: 224 (1913).
 Pritchardia bakeri Hodel (2009)
 Pritchardia beccariana Rock, Bull. Torrey Bot. Club 43: 386 (1916).
 Pritchardia flynnii Lorence &amp; Gemmill, Novon 14: 185 (2004).
@@ -670,15 +692,83 @@
 Pritchardia viscosa Rock, Mem. Bernice Pauahi Bishop Mus. 8: 66 (1921).
 Pritchardia vuylstekeana H.Wendl., Rev. Hort. 55: 329 (1883).
 Pritchardia waialealeana Read, Principes 32: 135 (1988).
-Pritchardia woodii Hodel (2007).
-Précédemment dans cette liste
-P. affinis → Pritchardia maideniana
+Pritchardia woodii Hodel (2007).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pritchardia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pritchardia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Précédemment dans cette liste</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>P. affinis → Pritchardia maideniana
 P. aylmer-robinsonii → Pritchardia remota
 P. lanaiensis → Pritchardia glabrata
 P. limahuliensis → Pritchardia napaliensis
-P. pericularum → Pritchardia vuylstekeana
-Disposition  IUCN
-Pritchardia maideniana, Pritchardia hardyi, Pritchardia kaalae, Pritchardia munroi, Pritchardia napaliensis, Pritchardia schattaueri et Pritchardia viscosa sont des espèces en danger critique d'extinction (CR).
+P. pericularum → Pritchardia vuylstekeana</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pritchardia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pritchardia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Disposition  IUCN</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pritchardia maideniana, Pritchardia hardyi, Pritchardia kaalae, Pritchardia munroi, Pritchardia napaliensis, Pritchardia schattaueri et Pritchardia viscosa sont des espèces en danger critique d'extinction (CR).
 Pritchardia forbesiana, Pritchardia glabrata, Pritchardia lanigera, Pritchardia perlmanii et Pritchardia remota sont des espèces en danger (EN).
 Pritchardia lowreyana et Pritchardia waialealeana sont des espèces vulnérable (VU).
 Pritchardia thurstonii est une espèce présentant un faible risque de disparition (LR).
